--- a/wikipedia_validation_sheets/Paratyphoid fever DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Paratyphoid fever DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9902A879-6CDA-3F4E-BD17-1BB4627D0FCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEEE189-A3E1-CA40-A27B-DCEB30F01D51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45460" yWindow="2620" windowWidth="20500" windowHeight="15440" xr2:uid="{02449F5F-1895-46D0-A3E4-89FA7A186B19}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{02449F5F-1895-46D0-A3E4-89FA7A186B19}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="119">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -336,22 +336,52 @@
     <t>Paratyphoid C fever</t>
   </si>
   <si>
-    <t xml:space="preserve">elative bradycardia </t>
-  </si>
-  <si>
     <t>rosy spots on the central body</t>
   </si>
   <si>
-    <t xml:space="preserve">psychosis </t>
-  </si>
-  <si>
-    <t>CONFUSION</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chloramphenicol therapy </t>
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>mental, disorder</t>
+  </si>
+  <si>
+    <t>Mental disorders NOS</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>bradycardia, slow, heart, rate</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>confusion</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>enlargement</t>
+  </si>
+  <si>
+    <t>Enlargement (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>psychosis</t>
+  </si>
+  <si>
+    <t>Nonorganic psychosis NOS</t>
   </si>
 </sst>
 </file>
@@ -699,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -761,21 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -794,12 +809,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,16 +1182,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768FDDD9-0085-438D-AB71-77641C3EEA3E}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -1187,43 +1201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1741,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2125,16 +2139,16 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="45" t="b">
+      <c r="E35" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="19" t="s">
@@ -2154,16 +2168,16 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="45" t="b">
+      <c r="E36" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -2175,7 +2189,7 @@
       <c r="H36" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2183,16 +2197,16 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="45" t="b">
+      <c r="E37" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -2204,7 +2218,7 @@
       <c r="H37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2212,16 +2226,16 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="45" t="b">
+      <c r="E38" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="19" t="s">
@@ -2233,7 +2247,7 @@
       <c r="H38" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2241,16 +2255,16 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="45" t="b">
+      <c r="E39" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="19" t="s">
@@ -2262,7 +2276,7 @@
       <c r="H39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2270,16 +2284,16 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="45" t="b">
+      <c r="E40" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="19" t="s">
@@ -2291,7 +2305,7 @@
       <c r="H40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2299,16 +2313,16 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="45" t="b">
+      <c r="E41" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="19" t="s">
@@ -2320,7 +2334,7 @@
       <c r="H41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2328,16 +2342,16 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="45" t="b">
+      <c r="E42" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="19" t="s">
@@ -2349,7 +2363,7 @@
       <c r="H42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2357,16 +2371,16 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="45" t="b">
+      <c r="E43" s="36" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="19" t="s">
@@ -2378,7 +2392,7 @@
       <c r="H43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2386,16 +2400,16 @@
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="49" t="b">
+      <c r="E44" s="39" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="19" t="s">
@@ -2407,168 +2421,283 @@
       <c r="H44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="50" t="b">
+      <c r="E45" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
+      <c r="F45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="31" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="37" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>31</v>
-      </c>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
